--- a/Server/Bin/configFile/exchange.xlsx
+++ b/Server/Bin/configFile/exchange.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7z-Play-00\Desktop\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>配置id</t>
   </si>
@@ -49,7 +49,27 @@
     <t>icon</t>
   </si>
   <si>
-    <t>30元话费</t>
+    <t>需要消耗的奖券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元话费</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,56 +77,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苹果iphone6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huafei10.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huafei20.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huafei30.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huafei50.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huafei100.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poker.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duleisi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinzhuan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipad.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5元话费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+    <r>
+      <t>huafei</t>
     </r>
     <r>
       <rPr>
@@ -117,7 +89,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -127,21 +99,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>元话费</t>
+      <t>0.png</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物券100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>红米n</t>
+    <r>
+      <t>huafei</t>
     </r>
     <r>
       <rPr>
@@ -152,13 +116,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ote2</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.png</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>苹果ipad Air</t>
+      <t>huafei</t>
     </r>
     <r>
       <rPr>
@@ -169,29 +143,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>苹果iphone6</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>plus</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要消耗的奖券</t>
+      <t>0.png</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +224,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +509,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,172 +520,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>600</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>15000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>80000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>160000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>600000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>888888</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
